--- a/aggressive_sample.xlsx
+++ b/aggressive_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianvallejo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884C9B01-51FF-6944-ACDA-5ED1CD272386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CC469F-436B-1F40-AACB-24B7EBE4366D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{E7E85201-1369-C04B-A62B-3DC32DDDD85C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>quasi_text</t>
   </si>
@@ -44,159 +44,6 @@
     <t>aggro_human_rm</t>
   </si>
   <si>
-    <t>Mister Speaker, I rise to say a few words about this farm improvement loans legislation and its success in the past. Perhaps I should outline some of the hopes and aspirations of the farmers I represent who are concerned with legislation of this type.</t>
-  </si>
-  <si>
-    <t>Mister Speaker, I rise on a point of order. In keeping with the wisdom and restraint of the New Democratic Party during this debate, I respectfully suggest to honorable members that we dispense with private members' hour and continue with this debate so we can finish it, complete the bill tomorrow and start with new business on Monday morning. I am sure that we have the co-operation of all members of the house.</t>
-  </si>
-  <si>
-    <t>Mister Chairman, I am getting all kinds of side remarks. How would these honorable members react to such a change? How would these honorable members who are on the bandwagon of the right honorable gentleman-I suppose I can still call him the right honorable gentleman-react to a bill changing the name of those departments? I have in mind the honorable member from western Canada who attended a Liberal organization meeting in Regina. He is concerned with unemployment in Canada. I wonder how the eminent gentleman from Assiniboia would react to a change in the name of the Department of Agriculture. I wonder how the honorable gentleman from the Prairies and the honorable member from the Gaspe-I almost left him 23966-8}</t>
-  </si>
-  <si>
-    <t>was to reduce inflationary pressures on the economy, and I think that the effects of some of the reductions announced in the budget have already been indicated in press reports that are known to honorable members. I might add that so far as I am aware many of the proposals with regard to controls on prices, put forward by people in the party of the honorable member, seem to exclude any coverage of food products, which are concerning us all at the present time.</t>
-  </si>
-  <si>
-    <t>understand it, of conferring statutory authority upon the minister to make a payment, and it is the expression traditionally and generally used in authorizing payment to the provinces. I should refer the committee to the fact that the authority to make equalization payments, stabilization payments, tax revenue guarantee payments and postsecondary education adjustment payments, all of which are statutory in form, is granted by a provision using the expression "may". In those circumstances, the courts probably construe "may" as being imperative since it imposes a public duty upon the minister. There is nothing unusual in using that word, and I think I can assure the committee that it has a mandatory, imperative effect.</t>
-  </si>
-  <si>
-    <t>3.	These activities go hand in hand; thus it is not possible to isolate costs between (a), (b) and (c). Several officers have been working part time on plans for Canada's participation in Expo '74.</t>
-  </si>
-  <si>
-    <t>[Mister Kaplan.)</t>
-  </si>
-  <si>
-    <t>Also, since that occasion a committee known as the health care delivery committee was set up as part of the Canadian Association of Physical Medicine and Rehabili-</t>
-  </si>
-  <si>
-    <t>3.	Is the Chilean debt to Canada now held in its entirety by the EDC and, if not, where else is it held?</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Mister Speaker, I rise on a point of order. Listening to the reading of the rule by the Member opposite, it struck me that the Hon. Member speaking was not entitled to unlimited time because he was not speaking in reply to a speech made by a Minister on this stage of the Bill. On the other hand, the Hon. Member did indicate that he had structured his remarks in such a fashion and that he had had some assurance that he would be allowed to complete his remarks as he had structured them. In view of that, Hon. Members on this side have no objection to his continuing.</t>
-  </si>
-  <si>
-    <t>Gauthier</t>
-  </si>
-  <si>
-    <t>It would solve an awful lot of problems.</t>
-  </si>
-  <si>
-    <t>May 19, 1983</t>
-  </si>
-  <si>
-    <t>importation of Japanese manufactured vehicles, (b) Request that Canadian content regulations be imposed, (c) Length of negotiations; the honorable member for Saskatoon West (Mister Hnatyshyn)-(a) Corporate Affairs-Uranium price fixing trial-Query respecting Crown immunity (b) Instructions to counsel; the honorable member for Provencher (Mister Epp)-Political Parties-Former affiliation of Manitoba Attorney General.</t>
-  </si>
-  <si>
-    <t>November 26, 1987</t>
-  </si>
-  <si>
-    <t>Yes, Mister Speaker, I think I can. I do not want to prejudice the outcome of the issue because it must be subjected to a non partisan, neutral and objective environmental assessment process.</t>
-  </si>
-  <si>
-    <t>In conclusion, let me explain what our Party would do. We would tighten up the existing FIRA legislation to cover a review of foreign firms already operating in Canada, applying stricter controls over any expansion of existing foreign-con-trolled business, ensuring that these firms promote trade in accordance with Canadian laws and policies rather than submitting to the laws and policies of the controlling company.</t>
-  </si>
-  <si>
-    <t>The third phase will involve the final formulation of the action plan which will be tabled in the House of Commons this fall.</t>
-  </si>
-  <si>
-    <t>Bob Rae said that we have to smell the coffee because it is not as easy as all that. We have to priorize our payments and until we do we will not be able to really get at some of the problems of government.</t>
-  </si>
-  <si>
-    <t>Policies initiated by our government have also helped to provide women with opportunities to more actively participate in the economic life of the country and to contribute to its economic prosperity.</t>
-  </si>
-  <si>
-    <t>Let me add to this murky mix the Bloc position on expanding eligibility for employment benefits. Let me quote again from the member for Châteauguay: "Not only does the federal government interfere in areas of exclusive provincial jurisdiction"-which we have said we are not willing to do-"such as manpower and social assistance, but it does so with money collected as UI premiums". Can anyone imagine this? That comment would have made good sense if it had come from a member of the Reform Party. However, members have to agree that the federal government, if it does not do anything to help people who have slipped from unemployment insurance to welfare, then what is the point?</t>
-  </si>
-  <si>
-    <t>Last September the minister put forward a vision for the future of Canada's agriculture and agri-food sector, where we want to be in the years 2000, 2005, 2010 and beyond. He has invited all agri-food stakeholders to help refine that vision and develop a business plan to bring it to reality.</t>
-  </si>
-  <si>
-    <t>There are a number of indicators out there. I understand how frustrating it must be for people who would like to have an instant solution to a very longstanding problem. We will continue to do the best we can to get a very difficult deficit situation under control. As Canadians who understand this recognize, we cannot start to do anything about the debt until we have cleaned up the deficit. We are on the way to doing that. I do share the view of the honorable member that we should get to balanced books and begin to pay down the debt as soon as we possibly can.</t>
-  </si>
-  <si>
-    <t>During the previous nine years the debt grew from $208 billion to $508 billion under the Progressive Conservatives and we had a record annual deficit of $42 billion.</t>
-  </si>
-  <si>
-    <t>First, this basic principle for the good functioning of the government in Canada is recognized in the Constitution Act of 1867, but also in section 4 of the Parliament of Canada Act. The Constitution Act provides that: “The privileges, immunities and powers to be held, enjoyed and exercised by the Senate and by the House of Commons and by the members thereof respectively shall be such as are from time to time defined by the Act of Parliament of Canada”.</t>
-  </si>
-  <si>
-    <t>Mister Speaker, we are looking at the results of one month. This is not enough to establish that the very favourable upward trend since 1993 has been reversed. We are obviously watching the situation very closely.</t>
-  </si>
-  <si>
-    <t>Mister Speaker, let me to be very clear about what Canada is seeking. It is not what the honorable member has said. What Canada wants is very clear, and that is for the European Union to enforce its own laws on authorization of GMOs; we want the European mechanisms to allow approval or rejection of applications based on scientific evaluation establishing the safety of the products for humans, animals and the environment. We simply want them to enforce their own laws.</t>
-  </si>
-  <si>
-    <t>The federal government recognized that there was a problem in the southeast of the province, but rather than go after the employees, it decided to go after the employers, and not just one case at a time but as a group of 1,500 to 2,000.</t>
-  </si>
-  <si>
-    <t>We have to look at the basics of the report. Basically, and there is a consensus everywhere in Canada on this issue, it asks that the provinces be given the same revenues as in fiscal 1993-94 and that these revenues be adjusted over a certain period. The Bloc Quebecois talked about a five year period. In our campaign platform, we also talked about a five year period to review this.</t>
-  </si>
-  <si>
-    <t>Subsection 2(2) of the Marriage (Prohibited Degrees) Act is replaced by the following:</t>
-  </si>
-  <si>
-    <t>The NDP was pressuring the government on some of these issues and I understand why, but when the Liberals introduced the first budget, they said it could not be done. We should make no mistake about it, this budget was only introduced for one single, solitary purpose, which was 19 votes to keep the government alive. There was no other reason--</t>
-  </si>
-  <si>
-    <t>Mister Speaker, I thank the honorable parliamentary secretary for apologizing for the oil and gas industry. Again, it is just not acceptable. If people do not want to believe me as a New Democrat, then let us consider some of things Liberals have said about this issue. I would point to the comments of the member for Pickering—Scarborough East who said on CBC news, “a category five hurricane in the U.S. has given rise to a category five fleecing of the consumer at the pump”. He added that the refiners in Canada have seen fit to raise prices beyond what he called a catastrophic level.</t>
-  </si>
-  <si>
-    <t>In the last year or so there has been the Dawson College shooting in which a student was killed and approximately 20 others were sent to hospital, many with very serious injuries.</t>
-  </si>
-  <si>
-    <t>I have two examples on which I want to focus.</t>
-  </si>
-  <si>
-    <t>We have to put in place fuel efficiency standards for the auto sector so that the automobiles on our roads can be much less polluting than they have been historically.</t>
-  </si>
-  <si>
-    <t>In fact, at least 11 million Canadians have only their public pensions to rely upon for their retirement and, at current levels, those pensions offer benefits that are far from adequate, forcing all too many seniors back into the workforce instead of enjoying their retirement years.</t>
-  </si>
-  <si>
-    <t>The issue before the House is the public information of the Government of Canada. The issue before the House is whether the government has done its job to provide clear, timely and accurate information to the people of Canada about the public health challenges that they face in respect of H1N1.</t>
-  </si>
-  <si>
-    <t>The petitioners also note that the post office is absolutely critical to the services provided in rural communities in particular. These petitioners come mostly from the area of La Scie, as well as York Harbour and Lark Harbour in my riding.</t>
-  </si>
-  <si>
-    <t>Mister Speaker, the minister's answer is no excuse to destroy life-saving data that would help police keep our streets safe. The Conservative government's plan is tantamount to a $2 billion bonfire. It wants to destroy the data that police use 17,000 times a day and which the police have asked the government to keep. The police deserve a fighting chance against gun crime in Canada. If provinces also want to maintain this information for their own use, they should have the right to do so.</t>
-  </si>
-  <si>
-    <t>I mean, we are talking about the Criminal Code and the Corrections and Conditional Release Act. We are talking about very complicated pieces of legislation.</t>
-  </si>
-  <si>
-    <t>I will go back to a point I made earlier. I hope that we will get an answer from the Conservatives and that they will stand up to speak.</t>
-  </si>
-  <si>
-    <t>The Rouge Park, a small portion of which is located in my riding of Scarborough North, is indeed a national treasure, home to rare Carolinian forests and over 1,700 species of plants, birds, mammals, insects, reptiles, and amphibians. This park is a keeper of human history, including some of the oldest aboriginal sites, villages, and travel routes known in our country. That is why I stand today in support of Bill C-18, which will ensure the protection of this important ecosystem and provide guidance on how the park will be managed. This bill will rightfully extend the area of the Rouge Park so that, once it is fully established, it will be one of the world's largest and most protected parks within an urban setting.</t>
-  </si>
-  <si>
-    <t>The bill makes two changes. It decreases the second bracket, so for all revenue, all income from $45,000 to $90,000 the rate is decreased from 22% to 20.5%, and it adds another bracket for those earning over $200,000 that will be taxed at 33%.</t>
-  </si>
-  <si>
-    <t>Families are desperate for help. When will the government stop making excuses and fix this problem?</t>
-  </si>
-  <si>
-    <t>Mister Speaker, our government's priority since the very beginning of the pandemic has been to support our Canadian businesses and our workers. We know that small businesses continue to have difficultly making ends meet because of the restrictions in place due to the pandemic. To date, over 860,000 businesses have been supported by CEBA, and I understand the member's concern.</t>
-  </si>
-  <si>
-    <t>He and I corresponded numerous times on organ donation. He was so grateful for that life-saving kidney transplant in 2005, which extended his time with us for another 15 years. Jock loved his family more than anything and will be deeply missed by his wife Diana, his children and his many grandchildren.</t>
-  </si>
-  <si>
-    <t>When I was first elected, I was asked if I could speak for some time on the withdrawal of the CF-18s from the ISIS fight. I said that I could do a couple of minutes on that, but I was told I had 10 or 20 minutes on the subject. I said I could say everything I had to say in two minutes, but that was not the way we did things. I ended up putting eight minutes of filler into the two minutes of what I really wanted to say. As I sit in the House and listen to other members, a lot of filler happens that does not need to happen. I would encourage breaking it up in some way so we would either have two five-minute speeches with the five minutes of questions to either one of them or allow the flexibility.</t>
-  </si>
-  <si>
-    <t>(a) the House denounce all forms of discrimination;</t>
-  </si>
-  <si>
-    <t>If you are from a diverse background or indigenous, that means you are not white. Wanting to be sure that we include these diverse perspectives is in no way indicative of a lack of scientific rigour.</t>
-  </si>
-  <si>
-    <t>Madam Speaker, as my colleague from Drummond just mentioned, we had dozens and dozens of witnesses. Two of the key witnesses who came forward about Bill C-18 were from the Alberta Weekly Newspapers Association and the Saskatchewan Weekly Newspapers Association. These newspapers, independent outlets right across Alberta and Saskatchewan, are the ones that cover cities and other places represented by half of the Conservative caucus, and they said Bill C-18 needs to be put in place, adopted as quickly as possible.</t>
-  </si>
-  <si>
     <t>This is why people are so alarmed at this government's incompetence, if I can use a kind word, though I could use words much less kind. The government is giving something with one hand and taking it away with the other. It is not that its right hand does not know what its left hand is doing but that the government hopes that the person who receives a few cents in one pocket does not feel a few more cents very skilfully being taken out of his other pocket at the same time. That is the first group I wanted to mention which is actually being menaced by this government as a result of the spread getting wider between what they have to live on and what they have to pay out.</t>
   </si>
   <si>
@@ -219,6 +66,165 @@
   </si>
   <si>
     <t>On the question of energy, honorable members will recall that during the minority government, the NDP opposed the idea that we should move toward world prices for oil in this country. We opposed that idea then, and we oppose it now. The Liberal government was in favour of it then. We held them back somewhat in the days of the minority government. They now have a majority. They now have a public commitment to move toward world oil prices. We think it is both absurd and unfair to charge Canadians world prices for our own natural resources.</t>
+  </si>
+  <si>
+    <t>The minister has already indicated his intention to bring a short bill before parliament which will extend the powers of the banks to do business for a further period of time after July 1, 1977, when under the existing legislation these powers expire. This will provide him with an opportunity to explain the state of preparation of the decennial revision legislation and when it might appear. When the decennial legislation is brought forward, the House will undoubtedly want to hold public hearings and this is an obvious time to explore in greater thoroughness a whole range of questions, including the one which is before us today. Consequently, Mister Speaker, while I am sympathetic to the general objective of the proposal before us today, I would urge members to be patient until this matter can be discussed thoroughly in the context of the banking legislation which the Minister of Finance will be bringing before the House.</t>
+  </si>
+  <si>
+    <t>which an International Court should deal. The Hon. Member has said that the International Court is not talking about people. What does he think the courts in the country are doing every day? It's absurd.</t>
+  </si>
+  <si>
+    <t>First, as the Bill now stands, the new civilian security service would have the power to massively invade the privacy of Canadians. It would have the unprecedented power to open first-class mail, to access confidential medical records and to examine confidential psychiatric records and journalists' records. Once again, I say that it is a disgrace and a shame that the press gallery is empty for this debate on one of the most important pieces of legislation in the country. Ironically, it may be the press that will become the victim of this new secret security service.</t>
+  </si>
+  <si>
+    <t>Because I think it is of vital importance, in that it involves the very livelihood of thousands of people in the Province of Nova Scotia, let me review briefly what happened as a result of the refusal of the United States Congress to approve the treaty and convention relating to fisheries rights on the Georges Bank. They are now before the International Court in the Hague. They are arguing like fishmongers literally before an international court of dubious jurisdiction over who will be allowed to harvest Georges Bank.</t>
+  </si>
+  <si>
+    <t>What kind of cynical shell game has been played since 1971 with the people of Canada? The original level of "acceptable" unemployment was 4 per cent of the work force. In 1976, when unemployment rates were increasing dramatically as a direct result of the failure of Liberal economic policies, there was a redefinition of this "acceptable" level. Canadians were told that working men and women would have to pay even more, from their own pockets, of the costs of the bankruptcy of Liberal economic policies, to the extent that now something in excess of 7 per cent unemployment is paid for by the people of Canada.</t>
+  </si>
+  <si>
+    <t>formed, where some of the first colleges were formed and where there has been a standard of education which attracts to the University of New Brunswick alone 862 members from west of New Brunswick. For a maritime member, who knows that all other colleges in Atlantic Canada have populations which are pretty much constituted in the same way, to suggest that the Government of Canada should start to manipulate education, is to me an utterly and totally incredible suggestion. He is saying we must plan because we must have certain skills and we have to re-educate. So what is new? Doctors have been saying for 20 years that they virtually have to re-educate themselves by going to seminars, classes, courses or whatever. Lawyers, chartered accountants and other skilled people such as welders, blacksmiths, whatever they may be, have had to re-educate themselves to keep up with technology, so what is new?</t>
+  </si>
+  <si>
+    <t>Maybe he was wondering how he could throw more money at these problems since they do not want to go away on their own. Crown corporations are a crock of that well known stuff that you and I know all about. There is no cost control, no firings for inconsistency or incompetence. Never. Who in CIDA got fired over the project in Haiti with the $25 million waste? Was the Prime Minister considering his successes with</t>
+  </si>
+  <si>
+    <t>The Hon. Member says that we are fear-mongering. She thinks that my comments are a tad partisan. That is okay, as unrealistic as that proposition may be. However, surely she cannot say the same thing about the Conference Board of Canada which has prepared a serious document on Research and Development entitled Research and Development Impacts of Corporate Income Tax Reform, and it dealt with all these cancellations in construction facilities, one of them which is right in Calgary. I see that an Hon. Member from Calgary is over there.</t>
+  </si>
+  <si>
+    <t>I would admit-and I think most Hon. Members would agree-that the Minister by and large has enjoyed a reputation as a straightshooter, or perhaps as one of a few stars in a galaxy of black holes, or perhaps as a beacon of hope shining across a sea of incompetence if not corruption. 1 fear that with the Budget the Minister has set about to destroy that reputation by engaging in fiscal flimflam at best. He has allowed himself to be used as a decoy, probably to draw fire away from the flock of wild turkeys which surrounds him on the government benches.</t>
+  </si>
+  <si>
+    <t>That is a disgrace, Mister Speaker. I put it on the record because I want to be honest. What is happening in my province, and I am ashamed of it, is happening in every other province in this country, and much worse as well, and I will come to that in a minute.</t>
+  </si>
+  <si>
+    <t>The point I am trying to make, which many of us will have to look at seriously, is the whole notion of trust and credibility. Canadians are prepared to share the burden, if they think it is being done fairly. Unemployment insurance, family allowance, and old age pensions are a sacred trust. We must not allow the trust of Canadians to deteriorate to a point where they become cynical. I have listened to people talk about New Zealand, the United States, and about other countries and how they do it. This country is very special in how it deals across the board with men and women in every part of the country. There are basic standards, basic programs, universal programs, and programs that allow people to deal with their future with some degree of security.</t>
+  </si>
+  <si>
+    <t>I will come quickly to the point. In view of the speed with which the Senate is processing the bill, would the Prime Minister take steps in the early future that would result in the abolition of this absurd and undemocratic institution?</t>
+  </si>
+  <si>
+    <t>Madam Speaker, it is really pathetic to hear a government minister go back eight years to justify his incompetence and inaction in creating jobs today in 1992.</t>
+  </si>
+  <si>
+    <t>The reopening of the Canadian embassy inspired great hope for the Lebanese people, but an excessive military reprisal by Israel destroyed all that and the mounting debt toll is a disgrace. The decisive attack on an electrical power plant in the populous city of Beirut is an example of the excess.</t>
+  </si>
+  <si>
+    <t>It would be absurd to claim that a single policy paper has all the answers to secure Canada's economic future. Other papers on specific issues are being completed. I suggest that no government in recent memory has demonstrated our commitment to providing Canadians with factual, accessible information on its economic principles, its strategic agenda and the fiscal situation.</t>
+  </si>
+  <si>
+    <t>I understand members of the Reform Party tried to present a budget last week and it was a complete flop because they were not competent enough to prepare a competent budget. Being so incompetent they know their value is not very good and they do not want to be overcompensated.</t>
+  </si>
+  <si>
+    <t>The people of my riding are sympathetic. They understand there can be crises that must be addressed, but they want fiscal prudence. Because many of them have mortgages or many of them have debts, they know that what is important is how they manage them. Is the debt or mortgage affordable?</t>
+  </si>
+  <si>
+    <t>Mister Speaker, the reaction of the Quebec intergovernmental affairs minister, last Friday, to a speech by the Mayor of Montreal was disgraceful.</t>
+  </si>
+  <si>
+    <t>Politics must deal with other issues. It is not up to the government to select a coach. There are other approaches, like dealing with the thrust of programs, not their management. This is the type of issue that makes people even more cynical about politicians.</t>
+  </si>
+  <si>
+    <t>Not only did the member for Edmonton North do it but her entire party platform was built once again on the denigration of MPs and their role and the fact that they tried to remember the pigs, as my honorable friend mentioned, the snorting and the buttons. It was absolutely disgraceful behaviour. We have grown to become accustomed to it. They wear sombreros and drape old jalopy cars in Canadian flags. They use anything it takes to get a little attention. How to get on the nightly news: bring a pig into the House of Commons and snort a little.</t>
+  </si>
+  <si>
+    <t>He talked about the fact that this so-called rogue state scenario was in fact ludicrous. He said that this absurd hypothesis omitted the fact that none of these states had nuclear weapons nor long range missiles, that these countries were very poor, and that their leaders did not want to provoke retaliation. Moreover, experts agreed that terrorist attacks, weapons stuffed in briefcases or trailer trucks, posed a greater danger to national security than ballistic rockets.</t>
+  </si>
+  <si>
+    <t>The fact is that the way the government has approached this whole issue of drugs is rather pathetic. Having been the vice-chair of that committee and knowing what happened, I know that the real problem in this country is that there is no national drug strategy out there.</t>
+  </si>
+  <si>
+    <t>Mister Speaker, after a speech like that I wonder whether the honorable member has actually read Bill C-48. It is kind of pathetic that she is opposed to spending $4.6 billion. The bill does not call for spending $4.6 billion, or $4.5 billion, to be more accurate about it, unless and until there are certain contingencies achieved. If in fact there is a surplus beyond such and such an amount, namely $2 billion, then the government will spend in these areas. It is called unplanned surplus legislation.</t>
+  </si>
+  <si>
+    <t>Duty remissions which assist the Canadian apparel industry to solve previous problems created by unfair tariffs are set to expire December 31, 2004. This issue has been before the House many times. The government has shown a complete lack of interest requiring this action by the House today. The government has failed to act. I cannot tell if that is a result of a lack of interest, a complete inability to grasp the complexity of this issue, or incompetence, or maybe it is a bit of all of the above.</t>
+  </si>
+  <si>
+    <t>Mister Speaker, that is a pathetic answer. Those people have been in government for 12 years. They are in the driver's seat. They now make decisions. They cannot blame it on anyone but themselves.</t>
+  </si>
+  <si>
+    <t>That is what will happen at five minutes to eight or five minutes to nine, just before the poll closes, if people have to go get more ID because they do not have sufficient ID or they have to find another person to vouch for them. I can guarantee that people who have been voting all their lives, particularly people like the senior referenced in the Ontario election who had voted all her life, will just plain give up, and that is pathetic. It says that we have not done our job here.</t>
+  </si>
+  <si>
+    <t>The state legislature did it for two reasons. I could be somewhat cynical and say that it was only because of how much it was costing and the rate of incarceration that was occurring in that state, but it also did it because it finally recognized that it was not working. We can go through at least half a dozen to a dozen states just in the last few years that have begun to drop mandatory minimums with regard to drug offences. There is no evidence that any form of a mandatory sentencing policy for drug offences works.</t>
+  </si>
+  <si>
+    <t>I am pleased to lend my support, notwithstanding the fact that there are still some concerns out there. I am not unsympathetic to those concerns. Those concerns need to be addressed. There are different mechanisms that can be put in place. It is beholden upon the government to do so and make sure that our sectors and industries are protected.</t>
+  </si>
+  <si>
+    <t>As usual, the government's idea of partnership with cities is "Do it my way". Why is the government sticking it to Toronto residents and businesses? Why is the city of Toronto left holding the bag for the government's incompetence?</t>
+  </si>
+  <si>
+    <t>The budget contains virtually nothing for child care. This critical program for our economy and our society is still being ignored by the Conservatives. Their cynical minister still claims that the few dollars a month in cheques that families receive creates child care choices. The families at UBC who wait two years for a child care space certainly do not agree with that.</t>
+  </si>
+  <si>
+    <t>Agrirecovery, the so-called disaster program, is proving to be an insult and a disgrace to those farmers who need it and none more so than in my province of Prince Edward Island. Farmers are facing potato, wheat, carrot and turnip crop losses due to extreme wet weather. The minister promised $12.4 million and only $3.2 million has been delivered. That promise is four times higher than what was delivered. The industry, farm organizations and my colleagues have called on both levels of government to commit the full $12.4 million to water-damaged crop. In response to our letter, the minister stated, “As you know, the AgriRecovery initiative, the P.E.I. potato assistance program, was put in place last fall to encourage producers to destroy spoiled product in the field to mitigate losses in storage”.</t>
+  </si>
+  <si>
+    <t>The evidence is so strong that it is simply not believable for the Prime Minister to claim that he was authorizing Duffy to repay his own expenses. Not only is that patently absurd and unbelievable statement, the emails tell a very different story.</t>
+  </si>
+  <si>
+    <t>Mister Speaker, increasingly we are seeing that some of the most marginal people in the workforce, including newcomers and women and young people, are simply not qualifying for employment insurance. In fact, today in Canada less than 40% of Canadians qualify for an insurance program they paid into and ought to be entitled to. It is a national disgrace that started with the Liberal government and has been perpetuated, sadly, by the current government and made even worse. It is a factor in increasing inequality in Canada.</t>
+  </si>
+  <si>
+    <t>I am not a cynical guy. My Cape Breton mom said, “You've got two things in your life. You've got your name and your integrity, and you don't mess up one without messing up the other.”</t>
+  </si>
+  <si>
+    <t>Remember electoral reform, the promise that it would be the last election under the first past the post system? That is another broken promise, and what a fiasco that was. The minister lost her job as a result of that. Quite frankly, the buck should have stopped at the Prime Minister's desk. He was the one who initiated that failed process. He had promised Canadians he would consult broadly, that it would be a fair process, that he would divine some kind of a consensus out of the process and then move forward. Did that happen? No. It was a debacle. At the end of the day, the Prime Minister said that because he could not find consensus, he would break that promise of electoral reform. It is a disgrace.</t>
+  </si>
+  <si>
+    <t>We know energy east was killed by the government's decision to move the goalposts on its proponent by absurdly deciding to make both upstream and downstream emissions part of the criteria. I say absurd because the emissions from fossil fuels moved through a pipe are mostly determined by the type of vehicle the fossil fuel is put into by the end consumer.</t>
+  </si>
+  <si>
+    <t>I am not trying to be cynical, but the question is this. How are the decisions he makes going to impact the wealth he has created in Morneau Shepell? Should the shares not be put in a blind trust, as former prime minister Paul Martin did with Canada Steamship Lines? Would that not be the way to solve this issue?</t>
+  </si>
+  <si>
+    <t>Home prices have skyrocketed over this past COVID year and the dream of home ownership is becoming more distant for Canadians to attain. The national average home price was a record $678,000 in February 2021, up 25% from the same month last year. In my home city of Richmond, single detached home prices are up 20% in the past year, averaging at $1.5 million, far above the rest of the country. I find it ridiculous and ironic that Canada, with the world's second-largest land mass and sparse population, has to suffer such a housing crisis. The difficulties Canadians face are certainly exacerbated by the government's mismanagement of supply in our housing markets. Its incompetence is not limited to only home ownership.</t>
+  </si>
+  <si>
+    <t>Madam Speaker, we are speaking about the number of women in the Canadian Armed Forces. It is embarrassingly low. We are nowhere near our target of 25% of women in the Canadian Armed Forces by 2026. When women are caught in conflict zones, it is essential that women peacekeepers are there to offer compassionate and empathetic support.</t>
+  </si>
+  <si>
+    <t>As I said, my confidence in the government has failed, but I do not believe the Conservative government acted better. I am sad to say the Conservative government under Stephen Harper, with Jason Kenney as the minister of defence, bears the same guilt. Jason Kenney knew General Vance was accused of sexual harassment, and unbelievably he appointed the general to lead Operation Honour. In what world is it reasonable to have somebody accused or suspected of sexual harassment be in charge of the investigation into sexual harassment? The absurdity is shocking to me.</t>
+  </si>
+  <si>
+    <t>If we had a proportional system, if the Liberals had kept their promise and changed the electoral system as they promised in 2015, we might not be where we are today. There have even been situations in our history, on a number of occasions, where the party with the most votes did not form the government. The party that came second, based on the total number of votes, had the majority of the seats. This is an absurd democratic contradiction. I do not understand why the Conservative Party does not get more worked up; the Conservatives got more votes than the Liberals in the last two elections and yet they are in opposition, instead of forming the government. That does not seem to bother them. We in the NDP are troubled by this because it touches on a fundamental issue, the equality of citizens.</t>
+  </si>
+  <si>
+    <t>Let us talk about it. If we want to have the best possible system, we need to be able to talk about proportional voting, which would respect the popular will and the choices of voters. We live in an absurd system where a government can sometimes be elected with less than 40% of the vote. This is a common occurrence. A political party can get 37% or 38% of the vote and 55% to 60% of the seats in the House, which means 100% of the power. That is absurd. A majority of the people voted against a political party, sometimes by 60% or 62%, but that political party is given the keys to absolute power for four years.</t>
+  </si>
+  <si>
+    <t>He is incompetent. Will the Prime Minister fire him, yes or no?</t>
+  </si>
+  <si>
+    <t>In response, the UK has indicated that it would not be possible to redact the documents and declined to submit the documents for in camera review by the court. In conclusion, the judge ruled:  For the foregoing reasons, the good cause appearing therefrom, the court grants Smyth the following presumption:    Catholic Irish nationals accused or found guilty of offenses against members of the security forces or prison officials are subjected systematically to retaliatory harm, physical intimidation and death in Northern Ireland. Members of the security forces in Northern Ireland either participate directly or tacitly endorse these actions. That is the result of the British Government's failure to co-operate with the court and provide the documents. The court has conducted its business on the basis that those presumptions are taken as true.</t>
+  </si>
+  <si>
+    <t>The Germans have exceeded the target and the French have a target of 80 per cent by the year 2000, not 60 per cent, which is what we have set ourselves. It is a sorry picture. There are targets that cannot be met and the Government are cutting back at the very time when those targets need to be attained. We have seen cuts in not only the training budget but in further and higher education. Fancy cutting two thirds of the capital budget over the next three years for the further education sector at the very time when we should be encouraging more young people to go into full-time education.</t>
+  </si>
+  <si>
+    <t>The business of keeping the British and Irish Governments together will not be assisted by the disparaging use of words such as "foreigner". The killing of an Irish policeman sent shock waves around the Republic of Ireland as people realised that those who claim to be fighting for Ireland have a horrible and different vision of what Ireland would be. The Labour party rejoiced in the recent visit of President Robinson - I cannot think of anyone less deserving of the description foreigner. Her response to the weekend's events had more force for me than any other. She said that the bombing had left her "shocked, sickened and numbed. " She said that she felt angry that it had been done supposedly on behalf of  an Irishness that has nothing to do with the Irishness that I stand for as President of Ireland".</t>
+  </si>
+  <si>
+    <t>I have given way a great deal and I think that the House will want me to get through my final point. The final question is one that Labour has invented for itself. Labour fought local management and trust management in the health service. Now the Opposition say that they are in favour. At the same time that they fought the introduction of local management of hospitals, they were also fighting the introduction of the purchaser-provider arrangement.</t>
+  </si>
+  <si>
+    <t>I know that the Minister of State has a copy of it, as he requested one. It catalogues £7 billion of waste and it has been updated. The Government have wasted £7 billion. Just imagine what we could have done with that.</t>
+  </si>
+  <si>
+    <t>I think that the hon Gentleman is just a little selective. He makes no mention of the fact that health service expenditure is up by more than 50 per cent in real terms since 1979 or that, for every pound spent in 1979, nearly £4. 50 will be spent this year. Neither did he mention the fact that the national health service will spend nearly £2,500 a year for every family of four in this country. No other Government would have provided those resources.</t>
+  </si>
+  <si>
+    <t>The head teacher at that school said of that child and of two other children, who were the first disabled children to attend the school, that he could not have them in the school because they constituted a safety risk. Mrs Baldwin would have liked to have fought that decision of the head teacher, but because she was recovering from a nervous breakdown, she felt that she could not go through the trauma that would be involved. However, she looked forward to the day when a local campaign might help to provide integrated schooling in her area. So there is no doubt that many parents would like to have their children in integrated provision.</t>
+  </si>
+  <si>
+    <t>I am using the word "you" in the impersonal sense. If you prefer, Mr Deputy Speaker, I could use the third person impersonal and say "one". However, I find it more natural to use "you" in the impersonal sense. Means-testing will irreparably damage savings.</t>
+  </si>
+  <si>
+    <t>All the regulatory Bills that the Government have introduced, including the Utilities Bill - I must declare an interest as President of the Association of Electricity Producers - have a clear and common characteristic in that the regulators are not now so concerned with competition. That is what Conservative regulation was about - we included a sunset clause so that when there was true competition the regulation subsided. However, the Labour Government have included many of their political objectives in the regulations. For instance, the Office of Telecommunications is concerned not necessarily with competition between telephone companies and suppliers of telephone equipment, but with total coverage. The Office of Gas and Electricity Markets is concerned not with competition, but with fuel poverty. In fact, much of what it is doing is anti-competitive: it is working against competition.</t>
+  </si>
+  <si>
+    <t>All these structures have been on the statutory list for at least 30 years. On 19 May, the 1998 buildings-at-risk register listed the entrance lodge gates and mortuary chapel of Arnos Vale cemetery. Mr Towner's failure to disclose his financial situation meant that it was difficult for English Heritage to give grant, because he could not demonstrate need for financial assistance. He knew that in 1992. The south-west team of English Heritage made it clear that there was no possibility of a grant to him, that he was unable to accept the grant conditions, and that it would not communicate further with him on the matter.</t>
   </si>
 </sst>
 </file>
@@ -607,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FE9D7C-70C5-5D4F-AD83-1F62F419DA24}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B60"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -636,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -644,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -660,10 +666,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="340" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -671,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -679,15 +685,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -695,12 +701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -708,26 +714,26 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -740,10 +746,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -751,12 +757,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -764,10 +770,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="221" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -775,20 +781,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -796,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -804,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -812,10 +818,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
@@ -823,15 +829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="404" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -844,15 +850,15 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="404" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -863,12 +869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="153" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -876,26 +882,26 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -903,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -911,12 +917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -924,7 +930,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -932,7 +938,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -940,10 +946,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -951,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -964,7 +970,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -972,15 +978,15 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -988,7 +994,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -1004,31 +1010,31 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -1036,7 +1042,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
@@ -1063,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -1092,7 +1098,23 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
